--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelpn\PycharmProjects\automacao_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF17C1FD-268E-46E0-B9CA-25E0409C0F04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01267DA6-04EE-4CEB-B523-3C37E62F7998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25905" yWindow="930" windowWidth="11745" windowHeight="12345" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
+    <workbookView xWindow="9405" yWindow="570" windowWidth="11745" windowHeight="12345" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>Código</t>
   </si>
@@ -180,6 +180,45 @@
   </si>
   <si>
     <t>estrela</t>
+  </si>
+  <si>
+    <t>BELINELLI 2</t>
+  </si>
+  <si>
+    <t>BELINELLI 3</t>
+  </si>
+  <si>
+    <t>BELINELLI 1</t>
+  </si>
+  <si>
+    <t>belinelli 2</t>
+  </si>
+  <si>
+    <t>belinelli 1</t>
+  </si>
+  <si>
+    <t>belinelli 3</t>
+  </si>
+  <si>
+    <t>belinelli 4</t>
+  </si>
+  <si>
+    <t>BELINELLI 4</t>
+  </si>
+  <si>
+    <t>opini</t>
+  </si>
+  <si>
+    <t>OPINI OPINI</t>
+  </si>
+  <si>
+    <t>TITI</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>opini opini</t>
   </si>
 </sst>
 </file>
@@ -574,13 +613,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22B1096-DDE8-45EA-9DCD-EE6EF89604B1}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -607,20 +653,18 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B2" s="4">
         <v>3</v>
       </c>
       <c r="C2" s="5">
-        <v>18</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="8">
-        <v>14</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="8"/>
       <c r="F2" s="1">
         <v>1</v>
       </c>
@@ -636,13 +680,13 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
@@ -661,13 +705,13 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -685,15 +729,9 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
-      <c r="C5" s="5">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5">
@@ -710,15 +748,9 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4">
-        <v>6</v>
-      </c>
-      <c r="C6" s="5">
-        <v>11.2</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="1">
@@ -860,6 +892,12 @@
       <c r="G13" t="s">
         <v>15</v>
       </c>
+      <c r="I13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
@@ -873,6 +911,12 @@
       <c r="G14" t="s">
         <v>16</v>
       </c>
+      <c r="I14" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
@@ -886,6 +930,12 @@
       <c r="G15" t="s">
         <v>17</v>
       </c>
+      <c r="I15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
@@ -899,8 +949,14 @@
       <c r="G16" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>55</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="4"/>
       <c r="C17" s="5"/>
@@ -912,8 +968,14 @@
       <c r="G17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>61</v>
+      </c>
+      <c r="J17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5"/>
@@ -925,8 +987,14 @@
       <c r="G18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>60</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5"/>
@@ -939,7 +1007,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="4"/>
       <c r="C20" s="5"/>
@@ -952,7 +1020,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="4"/>
       <c r="C21" s="6"/>
@@ -965,7 +1033,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="6"/>
       <c r="B22" s="4"/>
       <c r="C22" s="6"/>
@@ -978,7 +1046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="6"/>
       <c r="B23" s="4"/>
       <c r="C23" s="6"/>
@@ -991,7 +1059,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="4"/>
       <c r="C24" s="6"/>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelpn\PycharmProjects\automacao_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01267DA6-04EE-4CEB-B523-3C37E62F7998}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B620AD2-B248-406C-BCA5-9395B1976054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="570" windowWidth="11745" windowHeight="12345" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -614,7 +614,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,7 +664,9 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>

--- a/teste.xlsx
+++ b/teste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nelpn\PycharmProjects\automacao_notas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B620AD2-B248-406C-BCA5-9395B1976054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6C2AAF-2EDC-43A0-8015-8B32CB9D7F78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
+    <workbookView xWindow="17205" yWindow="1680" windowWidth="12120" windowHeight="11820" xr2:uid="{AAEA7E11-244B-41D9-B354-0EAAB43709D4}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
   <si>
     <t>Código</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>14 lj</t>
-  </si>
-  <si>
     <t>SUPERMERCADO 14</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>BELINELLI 4</t>
   </si>
   <si>
-    <t>opini</t>
-  </si>
-  <si>
     <t>OPINI OPINI</t>
   </si>
   <si>
@@ -219,6 +213,78 @@
   </si>
   <si>
     <t>opini opini</t>
+  </si>
+  <si>
+    <t>Thomazini</t>
+  </si>
+  <si>
+    <t>real 1</t>
+  </si>
+  <si>
+    <t>REAL 1</t>
+  </si>
+  <si>
+    <t>14 lj 01</t>
+  </si>
+  <si>
+    <t>Iguatemi</t>
+  </si>
+  <si>
+    <t>iguatemi</t>
+  </si>
+  <si>
+    <t>panga</t>
+  </si>
+  <si>
+    <t>Panga</t>
+  </si>
+  <si>
+    <t>CRISTAL</t>
+  </si>
+  <si>
+    <t>cristal</t>
+  </si>
+  <si>
+    <t>MEGA</t>
+  </si>
+  <si>
+    <t>mega</t>
+  </si>
+  <si>
+    <t>LAGO</t>
+  </si>
+  <si>
+    <t>lago</t>
+  </si>
+  <si>
+    <t>j santos</t>
+  </si>
+  <si>
+    <t>COMERCIAL J SANTOS</t>
+  </si>
+  <si>
+    <t>SUP CENTRAL</t>
+  </si>
+  <si>
+    <t>supermercado central</t>
+  </si>
+  <si>
+    <t>vidro porto</t>
+  </si>
+  <si>
+    <t>VIDRO PORTO</t>
+  </si>
+  <si>
+    <t>simoni 01</t>
+  </si>
+  <si>
+    <t>SIMONI 01</t>
+  </si>
+  <si>
+    <t>SIMONI 02</t>
+  </si>
+  <si>
+    <t>simoni 02</t>
   </si>
 </sst>
 </file>
@@ -246,18 +312,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -272,26 +332,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -611,472 +672,531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22B1096-DDE8-45EA-9DCD-EE6EF89604B1}">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4"/>
+      <c r="G1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>18</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>5</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="5">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="8">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5">
-        <v>6</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="1">
+      <c r="C3" s="6">
+        <v>18</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>4</v>
-      </c>
-      <c r="I3" t="s">
-        <v>31</v>
       </c>
       <c r="J3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="K3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6">
+        <v>18</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="6">
+        <v>6</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5">
+        <v>6</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5">
-        <v>32</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B7" s="5">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
+      <c r="C7" s="6">
+        <v>11.2</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" t="s">
         <v>36</v>
       </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="1">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="1">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="1">
         <v>37</v>
       </c>
-      <c r="J6" t="s">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="1">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="1">
-        <v>6</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="1">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="1">
         <v>9</v>
       </c>
-      <c r="I7" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="1">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="1">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="2">
         <v>11</v>
       </c>
-      <c r="I9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="1">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" t="s">
-        <v>46</v>
-      </c>
-      <c r="J10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="1">
-        <v>38</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="1">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" t="s">
-        <v>48</v>
-      </c>
-      <c r="J12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="6"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="1">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="6"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="2">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>16</v>
-      </c>
-      <c r="I14" t="s">
-        <v>53</v>
       </c>
       <c r="J14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="6"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="1">
+      <c r="K14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="1">
         <v>15</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="2">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>53</v>
+      </c>
+      <c r="K16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="1">
+        <v>34</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" t="s">
         <v>54</v>
       </c>
-      <c r="J15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="6"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="2">
-        <v>31</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="K17" t="s">
         <v>55</v>
       </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="6"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="1">
-        <v>34</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>61</v>
-      </c>
-      <c r="J17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="6"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="1">
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="1">
         <v>44</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="6"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="1">
+      <c r="K18" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="1">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="6"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="1">
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="K19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="1">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="6"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="1">
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="1">
         <v>3</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="6"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="1">
+      <c r="J21" t="s">
+        <v>65</v>
+      </c>
+      <c r="K21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="1">
         <v>92220</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="6"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="1">
+      <c r="J22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1">
         <v>12</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="6"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="2">
+      <c r="J23" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="2">
         <v>26</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>26</v>
+      </c>
+      <c r="J24" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J25" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J26" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J27" t="s">
+        <v>77</v>
+      </c>
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J29" t="s">
+        <v>80</v>
+      </c>
+      <c r="K29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="J30" t="s">
+        <v>83</v>
+      </c>
+      <c r="K30" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
